--- a/biology/Botanique/Vantanea_guianensis/Vantanea_guianensis.xlsx
+++ b/biology/Botanique/Vantanea_guianensis/Vantanea_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vantanea guianensis est une espèce de plantes à fleurs de la famille des Humiriaceae (anciennement des Linaceae). Il s'agit de l'espèce type du genre Vantanea Aubl.. C'est un arbre sud-américain.
-Le nom Vantanea provient du nom vernaculaire Noirague (langues caribes) : IOUANTAN[3]. En Guyane, l'espèce est connue sous les noms de Bois gaulette, Adougue Boliquin, Awakola[4]. Au Brésil, on l'appelle Achuá-rana, Uchy-rana[5],[6] (terme générique[7],[8]), Faveiro[9]. On signale aussi le nom de Schuantan (langues caribes selon Urban (p. 453)[6]).
+Le nom Vantanea provient du nom vernaculaire Noirague (langues caribes) : IOUANTAN. En Guyane, l'espèce est connue sous les noms de Bois gaulette, Adougue Boliquin, Awakola. Au Brésil, on l'appelle Achuá-rana, Uchy-rana, (terme générique,), Faveiro. On signale aussi le nom de Schuantan (langues caribes selon Urban (p. 453)).
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vantanea guianensis est un arbre de taille moyenne ou grande, haut de 25(30) m pour 50 cm de diamètre, avec un tronc pouvant être doté de contreforts raides en plaques.
 L'écorce est épaisse, lisse ou rugueuse, écailleuse, densément lenticellée, brun rougeâtre foncé.
 Les rameaux sont lenticellés, glabres, subcylindriques, de couleur vert brunâtre.
-Le bois est compact, à le grain moyen, de couleur blanche, jaunâtre, à brun violacé, lourd (densité : 0,80 à 0,98), à 6-8 vaisseaux par mm2 de taille moyenne 145 à 175 µm, et des perforations en grille à 5 à 10 échelons[7],[4].
+Le bois est compact, à le grain moyen, de couleur blanche, jaunâtre, à brun violacé, lourd (densité : 0,80 à 0,98), à 6-8 vaisseaux par mm2 de taille moyenne 145 à 175 µm, et des perforations en grille à 5 à 10 échelons,.
 Les feuilles sont simples alternes.
 Le pétiole est aplati, sillonné sur le dessus, non épaissi à la base, long de 6-12 mm.
 Le limbe mesure environ 6-14 x (2,7)3-6 cm, est coriace, souple, glabre, entier, de forme elliptique à oblongue-elliptique, à apex court, atténué, courtement et obtusement acuminé, à base obtuse-cunéiforme et décurrente sur le pétiole.
@@ -540,7 +554,7 @@
 L'exocarpe est charnu, insipide, peu gras, épais de 3-5 mm, devenant coriace au séchage.
 L'endocarpe est dur, ligneux, rugueux, mesurant 5 × 3,8 cm, de forme ovoïde-ellipsoïde, largement arrondi à la base, brusquement et obtus apiculé-contracté à l'apex.
 Sa surface est profondément creusée d'anfractuosités donnant un aspect de cerveau, et entaillée par 5 sillons longitudinaux, profonds et étroits, chacun obstrué par un opercule long et étroit, et alternant avec une cavité vide irrégulière.
-Les graines (généralement 2 ou 3 développées par fruit) sont oblongues, mesurant environ 3,2 cm pour 0,3 cm d'épaisseur, abritées au fond des sillons, et protégées par les opercules[5],[6],[10],[11],[12],[13],[14].
+Les graines (généralement 2 ou 3 développées par fruit) sont oblongues, mesurant environ 3,2 cm pour 0,3 cm d'épaisseur, abritées au fond des sillons, et protégées par les opercules.
 </t>
         </is>
       </c>
@@ -569,9 +583,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vantanea guianensis est présent au Venezuela (Amazonas), au Guyana, au Suriname, en Guyane et dans toute la vallée moyenne et inférieure de l'Amazone (Équateur, Brésil : Acre, Amazonas, Pará)[6],[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vantanea guianensis est présent au Venezuela (Amazonas), au Guyana, au Suriname, en Guyane et dans toute la vallée moyenne et inférieure de l'Amazone (Équateur, Brésil : Acre, Amazonas, Pará),.
 </t>
         </is>
       </c>
@@ -600,9 +616,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vantanea guianensis est un arbre de taille moyenne ou grande[6], poussant épars, dans les forêts anciennes de terre ferme (non inondée)[6],[5], au Venezuela dans les forêts ripicoles, submontagnardes non inondées, autour de 100–200 m d'altitude[13], et qui fleurit en Guyane en août-septembre, et fructifie en juin-août[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vantanea guianensis est un arbre de taille moyenne ou grande, poussant épars, dans les forêts anciennes de terre ferme (non inondée) au Venezuela dans les forêts ripicoles, submontagnardes non inondées, autour de 100–200 m d'altitude, et qui fleurit en Guyane en août-septembre, et fructifie en juin-août.
 </t>
         </is>
       </c>
@@ -631,10 +649,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit n'est pas comestible[5].
-Selon Schomburgk, les noyaux coupés en deux sont utilisés comme pendentifs par les amérindiens du Guyana[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit n'est pas comestible.
+Selon Schomburgk, les noyaux coupés en deux sont utilisés comme pendentifs par les amérindiens du Guyana.
 </t>
         </is>
       </c>
@@ -663,9 +683,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[3] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « VANTANEA Guianenſis. (Tabula 229.)
 Arbor viginti-pedalis, plurimum ramoſa, ramis hinc &amp; indè ſparſis. Folia alterna, petiolata, rigida, ovata, acuminata, glabra, integerrima. Flores numeroſi, corymboſi terminales, coccinei.
 Florebat Auguſto.
